--- a/mbs-perturbation/bottleneck/svm/nearmiss/bottleneck-svm-linear-nearmiss-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/nearmiss/bottleneck-svm-linear-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5161290322580646</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7339181286549707</v>
+        <v>0.7719298245614036</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7222222222222222</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7027027027027027</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7836257309941521</v>
+        <v>0.9385964912280702</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.9298245614035088</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.75</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C5" t="n">
-        <v>0.631578947368421</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7397660818713451</v>
+        <v>0.9415204678362573</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6250000000000001</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7222222222222223</v>
+        <v>0.5679012345679013</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6896182764603818</v>
+        <v>0.8246753246753247</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6076023391812864</v>
+        <v>0.6543859649122806</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6427513093981686</v>
+        <v>0.6773690078037904</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7538011695906432</v>
+        <v>0.8299545159194283</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bottleneck/svm/nearmiss/bottleneck-svm-linear-nearmiss-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/nearmiss/bottleneck-svm-linear-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.1290322580645162</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7719298245614036</v>
+        <v>0.04152249134948097</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.923076923076923</v>
+        <v>0.7234042553191489</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9385964912280702</v>
+        <v>0.8096885813148789</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7857142857142857</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5789473684210527</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9298245614035088</v>
+        <v>0.6816608996539792</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5263157894736842</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9415204678362573</v>
+        <v>0.08131487889273356</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.07692307692307691</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5679012345679013</v>
+        <v>0.185121107266436</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8246753246753247</v>
+        <v>0.1641269841269841</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6543859649122806</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6773690078037904</v>
+        <v>0.1858719180613484</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8299545159194283</v>
+        <v>0.3598615916955017</v>
       </c>
     </row>
   </sheetData>
